--- a/logs/test_log_spell.xlsx
+++ b/logs/test_log_spell.xlsx
@@ -14,117 +14,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>spelling_issue</t>
   </si>
   <si>
-    <t>"Abhyas"</t>
-  </si>
-  <si>
-    <t>"Andhra"</t>
-  </si>
-  <si>
-    <t>"Baat"</t>
-  </si>
-  <si>
-    <t>"CORPAT"</t>
-  </si>
-  <si>
-    <t>"Chandrayaan"</t>
-  </si>
-  <si>
-    <t>"Chhattisgarh"</t>
-  </si>
-  <si>
-    <t>"Defence"</t>
-  </si>
-  <si>
-    <t>"Desc"</t>
-  </si>
-  <si>
-    <t>"ESIC"</t>
-  </si>
-  <si>
-    <t>"Indo"</t>
-  </si>
-  <si>
-    <t>"Ke"</t>
-  </si>
-  <si>
-    <t>"Ki"</t>
-  </si>
-  <si>
-    <t>"Labour"</t>
-  </si>
-  <si>
-    <t>"Licence"</t>
-  </si>
-  <si>
-    <t>"Loktantra"</t>
-  </si>
-  <si>
-    <t>"MSME"</t>
-  </si>
-  <si>
-    <t>"Mantri"</t>
-  </si>
-  <si>
-    <t>"NISHTHA"</t>
-  </si>
-  <si>
-    <t>"Pradesh"</t>
-  </si>
-  <si>
-    <t>"Programme"</t>
-  </si>
-  <si>
-    <t>"Rajnath"</t>
-  </si>
-  <si>
-    <t>"Raksha"</t>
-  </si>
-  <si>
-    <t>"Sericulture"</t>
-  </si>
-  <si>
-    <t>"Shagun"</t>
-  </si>
-  <si>
-    <t>"Shri"</t>
-  </si>
-  <si>
-    <t>"Swar"</t>
-  </si>
-  <si>
-    <t>"XRtP"</t>
-  </si>
-  <si>
-    <t>"Yudh"</t>
-  </si>
-  <si>
-    <t>"abled"</t>
-  </si>
-  <si>
-    <t>"eCourts"</t>
-  </si>
-  <si>
-    <t>"epathshala"</t>
-  </si>
-  <si>
-    <t>"flYHd"</t>
-  </si>
-  <si>
-    <t>"hon’ble"</t>
-  </si>
-  <si>
-    <t>"nav"</t>
-  </si>
-  <si>
-    <t>"png"</t>
-  </si>
-  <si>
-    <t>"quickli"</t>
+    <t>"Analytics"</t>
+  </si>
+  <si>
+    <t>"AngularJS"</t>
+  </si>
+  <si>
+    <t>"AppML"</t>
+  </si>
+  <si>
+    <t>"Cyber"</t>
+  </si>
+  <si>
+    <t>"DOM"</t>
+  </si>
+  <si>
+    <t>"DTD"</t>
+  </si>
+  <si>
+    <t>"Http"</t>
+  </si>
+  <si>
+    <t>"IFRAME"</t>
+  </si>
+  <si>
+    <t>"JQUERY"</t>
+  </si>
+  <si>
+    <t>"JS"</t>
+  </si>
+  <si>
+    <t>"JSON"</t>
+  </si>
+  <si>
+    <t>"Matplotlib"</t>
+  </si>
+  <si>
+    <t>"NumPy"</t>
+  </si>
+  <si>
+    <t>"RWD"</t>
+  </si>
+  <si>
+    <t>"SVG"</t>
+  </si>
+  <si>
+    <t>"SciPy"</t>
+  </si>
+  <si>
+    <t>"TypeScript"</t>
+  </si>
+  <si>
+    <t>"UTF"</t>
+  </si>
+  <si>
+    <t>"XPath"</t>
+  </si>
+  <si>
+    <t>"XQuery"</t>
+  </si>
+  <si>
+    <t>"XSLT"</t>
+  </si>
+  <si>
+    <t>"jQuery"</t>
+  </si>
+  <si>
+    <t>"js"</t>
   </si>
 </sst>
 </file>
@@ -456,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,71 +543,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/logs/test_log_spell.xlsx
+++ b/logs/test_log_spell.xlsx
@@ -14,78 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>spelling_issue</t>
-  </si>
-  <si>
-    <t>"Analytics"</t>
-  </si>
-  <si>
-    <t>"AngularJS"</t>
-  </si>
-  <si>
-    <t>"AppML"</t>
-  </si>
-  <si>
-    <t>"Cyber"</t>
-  </si>
-  <si>
-    <t>"DOM"</t>
-  </si>
-  <si>
-    <t>"DTD"</t>
-  </si>
-  <si>
-    <t>"Http"</t>
-  </si>
-  <si>
-    <t>"IFRAME"</t>
-  </si>
-  <si>
-    <t>"JQUERY"</t>
-  </si>
-  <si>
-    <t>"JS"</t>
-  </si>
-  <si>
-    <t>"JSON"</t>
-  </si>
-  <si>
-    <t>"Matplotlib"</t>
-  </si>
-  <si>
-    <t>"NumPy"</t>
-  </si>
-  <si>
-    <t>"RWD"</t>
-  </si>
-  <si>
-    <t>"SVG"</t>
-  </si>
-  <si>
-    <t>"SciPy"</t>
-  </si>
-  <si>
-    <t>"TypeScript"</t>
-  </si>
-  <si>
-    <t>"UTF"</t>
-  </si>
-  <si>
-    <t>"XPath"</t>
-  </si>
-  <si>
-    <t>"XQuery"</t>
-  </si>
-  <si>
-    <t>"XSLT"</t>
-  </si>
-  <si>
-    <t>"jQuery"</t>
-  </si>
-  <si>
-    <t>"js"</t>
   </si>
 </sst>
 </file>
@@ -417,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,121 +359,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
